--- a/DeliveryPerformance/template/template.xlsx
+++ b/DeliveryPerformance/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20835" windowHeight="8775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20835" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -915,19 +915,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="45.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="34" style="1" customWidth="1"/>
@@ -1019,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/DeliveryPerformance/template/template.xlsx
+++ b/DeliveryPerformance/template/template.xlsx
@@ -147,7 +147,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +157,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +196,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -206,6 +212,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,6 +236,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -598,29 +611,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabell4" displayName="Tabell4" ref="A1:T1048576" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabell4" displayName="Tabell4" ref="A1:T1048576" totalsRowShown="0" headerRowDxfId="0" dataDxfId="21">
   <autoFilter ref="A1:T1048576"/>
   <tableColumns count="20">
-    <tableColumn id="1" name="Project" dataDxfId="19"/>
-    <tableColumn id="2" name="Client" dataDxfId="18"/>
-    <tableColumn id="3" name="Client Ref." dataDxfId="17"/>
-    <tableColumn id="4" name="Order Nr." dataDxfId="16"/>
-    <tableColumn id="5" name="Order Reg Date" dataDxfId="15"/>
-    <tableColumn id="6" name="Item Nr." dataDxfId="14"/>
-    <tableColumn id="7" name="Client Art. Code" dataDxfId="13"/>
-    <tableColumn id="8" name="Vendor Nr." dataDxfId="12"/>
-    <tableColumn id="9" name="Description" dataDxfId="11"/>
-    <tableColumn id="10" name="Supplier" dataDxfId="10"/>
-    <tableColumn id="11" name="QTY" dataDxfId="9"/>
-    <tableColumn id="12" name="Unit Price" dataDxfId="8"/>
-    <tableColumn id="13" name="Total Price" dataDxfId="7"/>
-    <tableColumn id="14" name="Currency" dataDxfId="6"/>
-    <tableColumn id="15" name="CDD" dataDxfId="5"/>
-    <tableColumn id="16" name="EDD" dataDxfId="4"/>
-    <tableColumn id="17" name="RFI" dataDxfId="3"/>
-    <tableColumn id="18" name="CCD" dataDxfId="2"/>
-    <tableColumn id="19" name="ECD" dataDxfId="1"/>
-    <tableColumn id="20" name="Item Status" dataDxfId="0"/>
+    <tableColumn id="1" name="Project" dataDxfId="20"/>
+    <tableColumn id="2" name="Client" dataDxfId="19"/>
+    <tableColumn id="3" name="Client Ref." dataDxfId="18"/>
+    <tableColumn id="4" name="Order Nr." dataDxfId="17"/>
+    <tableColumn id="5" name="Order Reg Date" dataDxfId="16"/>
+    <tableColumn id="6" name="Item Nr." dataDxfId="15"/>
+    <tableColumn id="7" name="Client Art. Code" dataDxfId="14"/>
+    <tableColumn id="8" name="Vendor Nr." dataDxfId="13"/>
+    <tableColumn id="9" name="Description" dataDxfId="12"/>
+    <tableColumn id="10" name="Supplier" dataDxfId="11"/>
+    <tableColumn id="11" name="QTY" dataDxfId="10"/>
+    <tableColumn id="12" name="Unit Price" dataDxfId="9"/>
+    <tableColumn id="13" name="Total Price" dataDxfId="8"/>
+    <tableColumn id="14" name="Currency" dataDxfId="7"/>
+    <tableColumn id="15" name="CDD" dataDxfId="6"/>
+    <tableColumn id="16" name="EDD" dataDxfId="5"/>
+    <tableColumn id="17" name="RFI" dataDxfId="4"/>
+    <tableColumn id="18" name="CCD" dataDxfId="3"/>
+    <tableColumn id="19" name="ECD" dataDxfId="2"/>
+    <tableColumn id="20" name="Item Status" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -916,7 +929,7 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -944,65 +957,65 @@
     <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="13" t="s">
         <v>19</v>
       </c>
     </row>

--- a/DeliveryPerformance/template/template.xlsx
+++ b/DeliveryPerformance/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20835" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20835" windowHeight="8775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Project</t>
   </si>
@@ -87,12 +87,6 @@
   </si>
   <si>
     <t>Item [%]</t>
-  </si>
-  <si>
-    <t>Total Value [EUR]:</t>
-  </si>
-  <si>
-    <t>Total Value [NOK]:</t>
   </si>
   <si>
     <t>Delivered to FA:</t>
@@ -196,7 +190,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -204,9 +198,7 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -236,369 +228,369 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -611,29 +603,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabell4" displayName="Tabell4" ref="A1:T1048576" totalsRowShown="0" headerRowDxfId="0" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabell4" displayName="Tabell4" ref="A1:T1048576" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:T1048576"/>
   <tableColumns count="20">
-    <tableColumn id="1" name="Project" dataDxfId="20"/>
-    <tableColumn id="2" name="Client" dataDxfId="19"/>
-    <tableColumn id="3" name="Client Ref." dataDxfId="18"/>
-    <tableColumn id="4" name="Order Nr." dataDxfId="17"/>
-    <tableColumn id="5" name="Order Reg Date" dataDxfId="16"/>
-    <tableColumn id="6" name="Item Nr." dataDxfId="15"/>
-    <tableColumn id="7" name="Client Art. Code" dataDxfId="14"/>
-    <tableColumn id="8" name="Vendor Nr." dataDxfId="13"/>
-    <tableColumn id="9" name="Description" dataDxfId="12"/>
-    <tableColumn id="10" name="Supplier" dataDxfId="11"/>
-    <tableColumn id="11" name="QTY" dataDxfId="10"/>
-    <tableColumn id="12" name="Unit Price" dataDxfId="9"/>
-    <tableColumn id="13" name="Total Price" dataDxfId="8"/>
-    <tableColumn id="14" name="Currency" dataDxfId="7"/>
-    <tableColumn id="15" name="CDD" dataDxfId="6"/>
-    <tableColumn id="16" name="EDD" dataDxfId="5"/>
-    <tableColumn id="17" name="RFI" dataDxfId="4"/>
-    <tableColumn id="18" name="CCD" dataDxfId="3"/>
-    <tableColumn id="19" name="ECD" dataDxfId="2"/>
-    <tableColumn id="20" name="Item Status" dataDxfId="1"/>
+    <tableColumn id="1" name="Project" dataDxfId="19"/>
+    <tableColumn id="2" name="Client" dataDxfId="18"/>
+    <tableColumn id="3" name="Client Ref." dataDxfId="17"/>
+    <tableColumn id="4" name="Order Nr." dataDxfId="16"/>
+    <tableColumn id="5" name="Order Reg Date" dataDxfId="15"/>
+    <tableColumn id="6" name="Item Nr." dataDxfId="14"/>
+    <tableColumn id="7" name="Client Art. Code" dataDxfId="13"/>
+    <tableColumn id="8" name="Vendor Nr." dataDxfId="12"/>
+    <tableColumn id="9" name="Description" dataDxfId="11"/>
+    <tableColumn id="10" name="Supplier" dataDxfId="10"/>
+    <tableColumn id="11" name="QTY" dataDxfId="9"/>
+    <tableColumn id="12" name="Unit Price" dataDxfId="8"/>
+    <tableColumn id="13" name="Total Price" dataDxfId="7"/>
+    <tableColumn id="14" name="Currency" dataDxfId="6"/>
+    <tableColumn id="15" name="CDD" dataDxfId="5"/>
+    <tableColumn id="16" name="EDD" dataDxfId="4"/>
+    <tableColumn id="17" name="RFI" dataDxfId="3"/>
+    <tableColumn id="18" name="CCD" dataDxfId="2"/>
+    <tableColumn id="19" name="ECD" dataDxfId="1"/>
+    <tableColumn id="20" name="Item Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -928,7 +920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -957,65 +949,65 @@
     <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1030,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E11"/>
+  <dimension ref="A4:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,67 +1053,49 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="5"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DeliveryPerformance/template/template.xlsx
+++ b/DeliveryPerformance/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20835" windowHeight="8775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20835" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Project</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>Items delivered outside Scope</t>
+  </si>
+  <si>
+    <t>Total Value [EUR]:</t>
+  </si>
+  <si>
+    <t>Total Value [NOK]:</t>
+  </si>
+  <si>
+    <t>EX-Rate</t>
   </si>
 </sst>
 </file>
@@ -190,7 +199,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -205,13 +214,32 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Prosent" xfId="2" builtinId="5"/>
     <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -603,23 +631,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabell4" displayName="Tabell4" ref="A1:T1048576" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:T1048576"/>
-  <tableColumns count="20">
-    <tableColumn id="1" name="Project" dataDxfId="19"/>
-    <tableColumn id="2" name="Client" dataDxfId="18"/>
-    <tableColumn id="3" name="Client Ref." dataDxfId="17"/>
-    <tableColumn id="4" name="Order Nr." dataDxfId="16"/>
-    <tableColumn id="5" name="Order Reg Date" dataDxfId="15"/>
-    <tableColumn id="6" name="Item Nr." dataDxfId="14"/>
-    <tableColumn id="7" name="Client Art. Code" dataDxfId="13"/>
-    <tableColumn id="8" name="Vendor Nr." dataDxfId="12"/>
-    <tableColumn id="9" name="Description" dataDxfId="11"/>
-    <tableColumn id="10" name="Supplier" dataDxfId="10"/>
-    <tableColumn id="11" name="QTY" dataDxfId="9"/>
-    <tableColumn id="12" name="Unit Price" dataDxfId="8"/>
-    <tableColumn id="13" name="Total Price" dataDxfId="7"/>
-    <tableColumn id="14" name="Currency" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabell4" displayName="Tabell4" ref="A1:U1048576" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:U1048576"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Project" dataDxfId="20"/>
+    <tableColumn id="2" name="Client" dataDxfId="19"/>
+    <tableColumn id="3" name="Client Ref." dataDxfId="18"/>
+    <tableColumn id="4" name="Order Nr." dataDxfId="17"/>
+    <tableColumn id="5" name="Order Reg Date" dataDxfId="16"/>
+    <tableColumn id="6" name="Item Nr." dataDxfId="15"/>
+    <tableColumn id="7" name="Client Art. Code" dataDxfId="14"/>
+    <tableColumn id="8" name="Vendor Nr." dataDxfId="13"/>
+    <tableColumn id="9" name="Description" dataDxfId="12"/>
+    <tableColumn id="10" name="Supplier" dataDxfId="11"/>
+    <tableColumn id="11" name="QTY" dataDxfId="10"/>
+    <tableColumn id="12" name="Unit Price" dataDxfId="9"/>
+    <tableColumn id="13" name="Total Price" dataDxfId="8"/>
+    <tableColumn id="14" name="Currency" dataDxfId="7"/>
+    <tableColumn id="21" name="EX-Rate" dataDxfId="6"/>
     <tableColumn id="15" name="CDD" dataDxfId="5"/>
     <tableColumn id="16" name="EDD" dataDxfId="4"/>
     <tableColumn id="17" name="RFI" dataDxfId="3"/>
@@ -918,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -939,17 +968,17 @@
     <col min="11" max="11" width="11.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="15" width="11.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -993,21 +1022,24 @@
         <v>13</v>
       </c>
       <c r="O1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1022,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E9"/>
+  <dimension ref="A4:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,49 +1085,67 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>24</v>
+      <c r="A5" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>25</v>
+      <c r="A6" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="5"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DeliveryPerformance/template/template.xlsx
+++ b/DeliveryPerformance/template/template.xlsx
@@ -53,9 +53,6 @@
     <t>Unit Price</t>
   </si>
   <si>
-    <t>Total Price</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>EX-Rate</t>
+  </si>
+  <si>
+    <t>Total Value</t>
   </si>
 </sst>
 </file>
@@ -239,6 +239,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -646,15 +652,15 @@
     <tableColumn id="10" name="Supplier" dataDxfId="11"/>
     <tableColumn id="11" name="QTY" dataDxfId="10"/>
     <tableColumn id="12" name="Unit Price" dataDxfId="9"/>
-    <tableColumn id="13" name="Total Price" dataDxfId="8"/>
-    <tableColumn id="14" name="Currency" dataDxfId="7"/>
-    <tableColumn id="21" name="EX-Rate" dataDxfId="6"/>
-    <tableColumn id="15" name="CDD" dataDxfId="5"/>
-    <tableColumn id="16" name="EDD" dataDxfId="4"/>
-    <tableColumn id="17" name="RFI" dataDxfId="3"/>
-    <tableColumn id="18" name="CCD" dataDxfId="2"/>
-    <tableColumn id="19" name="ECD" dataDxfId="1"/>
-    <tableColumn id="20" name="Item Status" dataDxfId="0"/>
+    <tableColumn id="13" name="Currency" dataDxfId="8"/>
+    <tableColumn id="14" name="EX-Rate" dataDxfId="7"/>
+    <tableColumn id="21" name="CDD" dataDxfId="6"/>
+    <tableColumn id="15" name="EDD" dataDxfId="5"/>
+    <tableColumn id="16" name="RFI" dataDxfId="4"/>
+    <tableColumn id="17" name="CCD" dataDxfId="3"/>
+    <tableColumn id="18" name="ECD" dataDxfId="2"/>
+    <tableColumn id="19" name="Item Status" dataDxfId="1"/>
+    <tableColumn id="20" name="Total Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -949,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -973,8 +979,7 @@
     <col min="17" max="17" width="12" style="1" customWidth="1"/>
     <col min="18" max="18" width="12.140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="11.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="1" customWidth="1"/>
+    <col min="20" max="21" width="11.85546875" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1019,10 +1024,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>14</v>
@@ -1040,7 +1045,7 @@
         <v>18</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1072,21 +1077,21 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
@@ -1095,7 +1100,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="5"/>
@@ -1104,7 +1109,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="5"/>
@@ -1113,7 +1118,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="5"/>
@@ -1122,7 +1127,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="5"/>
@@ -1131,7 +1136,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="5"/>
@@ -1140,7 +1145,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="5"/>

--- a/DeliveryPerformance/template/template.xlsx
+++ b/DeliveryPerformance/template/template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Project</t>
   </si>
@@ -111,17 +111,30 @@
   </si>
   <si>
     <t>Total Value</t>
+  </si>
+  <si>
+    <t>EDD/RFI-CDD</t>
+  </si>
+  <si>
+    <t>Delay (RFI-CDD)</t>
+  </si>
+  <si>
+    <t>RFI-Order Date</t>
+  </si>
+  <si>
+    <t>CDD-Order date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;kr&quot;\ * #,##0.00_ ;_ &quot;kr&quot;\ * \-#,##0.00_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +162,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -170,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -193,13 +212,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -216,13 +248,265 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Prosent" xfId="2" builtinId="5"/>
     <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -245,176 +529,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -637,30 +751,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabell4" displayName="Tabell4" ref="A1:U1048576" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A1:U1048576"/>
-  <tableColumns count="21">
-    <tableColumn id="1" name="Project" dataDxfId="20"/>
-    <tableColumn id="2" name="Client" dataDxfId="19"/>
-    <tableColumn id="3" name="Client Ref." dataDxfId="18"/>
-    <tableColumn id="4" name="Order Nr." dataDxfId="17"/>
-    <tableColumn id="5" name="Order Reg Date" dataDxfId="16"/>
-    <tableColumn id="6" name="Item Nr." dataDxfId="15"/>
-    <tableColumn id="7" name="Client Art. Code" dataDxfId="14"/>
-    <tableColumn id="8" name="Vendor Nr." dataDxfId="13"/>
-    <tableColumn id="9" name="Description" dataDxfId="12"/>
-    <tableColumn id="10" name="Supplier" dataDxfId="11"/>
-    <tableColumn id="11" name="QTY" dataDxfId="10"/>
-    <tableColumn id="12" name="Unit Price" dataDxfId="9"/>
-    <tableColumn id="13" name="Currency" dataDxfId="8"/>
-    <tableColumn id="14" name="EX-Rate" dataDxfId="7"/>
-    <tableColumn id="21" name="CDD" dataDxfId="6"/>
-    <tableColumn id="15" name="EDD" dataDxfId="5"/>
-    <tableColumn id="16" name="RFI" dataDxfId="4"/>
-    <tableColumn id="17" name="CCD" dataDxfId="3"/>
-    <tableColumn id="18" name="ECD" dataDxfId="2"/>
-    <tableColumn id="19" name="Item Status" dataDxfId="1"/>
-    <tableColumn id="20" name="Total Value" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabell4" displayName="Tabell4" ref="A1:Y1048576" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:Y1048576"/>
+  <tableColumns count="25">
+    <tableColumn id="1" name="Project" dataDxfId="24"/>
+    <tableColumn id="2" name="Client" dataDxfId="23"/>
+    <tableColumn id="3" name="Client Ref." dataDxfId="22"/>
+    <tableColumn id="4" name="Order Nr." dataDxfId="2"/>
+    <tableColumn id="5" name="Order Reg Date" dataDxfId="0"/>
+    <tableColumn id="6" name="Item Nr." dataDxfId="1"/>
+    <tableColumn id="7" name="Client Art. Code" dataDxfId="21"/>
+    <tableColumn id="8" name="Vendor Nr." dataDxfId="20"/>
+    <tableColumn id="9" name="Description" dataDxfId="19"/>
+    <tableColumn id="10" name="Supplier" dataDxfId="18"/>
+    <tableColumn id="11" name="QTY" dataDxfId="17"/>
+    <tableColumn id="12" name="Unit Price" dataDxfId="16"/>
+    <tableColumn id="13" name="Currency" dataDxfId="15"/>
+    <tableColumn id="14" name="EX-Rate" dataDxfId="5"/>
+    <tableColumn id="21" name="CDD" dataDxfId="3"/>
+    <tableColumn id="15" name="EDD" dataDxfId="4"/>
+    <tableColumn id="16" name="RFI" dataDxfId="6"/>
+    <tableColumn id="17" name="CCD" dataDxfId="7"/>
+    <tableColumn id="18" name="ECD" dataDxfId="8"/>
+    <tableColumn id="19" name="Item Status" dataDxfId="9"/>
+    <tableColumn id="20" name="Total Value" dataDxfId="14"/>
+    <tableColumn id="22" name="EDD/RFI-CDD" dataDxfId="13"/>
+    <tableColumn id="23" name="Delay (RFI-CDD)" dataDxfId="12"/>
+    <tableColumn id="24" name="RFI-Order Date" dataDxfId="11"/>
+    <tableColumn id="25" name="CDD-Order date" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -953,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -965,7 +1083,7 @@
     <col min="2" max="2" width="43" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="19" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="1" customWidth="1"/>
@@ -974,16 +1092,21 @@
     <col min="11" max="11" width="11.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="19" customWidth="1"/>
+    <col min="17" max="17" width="12" style="19" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="19" customWidth="1"/>
     <col min="20" max="21" width="11.85546875" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="22" max="22" width="13.42578125" style="14" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" style="14" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" style="14" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="14" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -996,7 +1119,7 @@
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -1026,19 +1149,19 @@
       <c r="N1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="18" t="s">
         <v>17</v>
       </c>
       <c r="T1" s="11" t="s">
@@ -1046,6 +1169,18 @@
       </c>
       <c r="U1" s="11" t="s">
         <v>31</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/DeliveryPerformance/template/template.xlsx
+++ b/DeliveryPerformance/template/template.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20835" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20835" windowHeight="8775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="Project" sheetId="2" r:id="rId2"/>
+    <sheet name="Mill" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -279,182 +280,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -563,74 +388,250 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -757,28 +758,28 @@
     <tableColumn id="1" name="Project" dataDxfId="24"/>
     <tableColumn id="2" name="Client" dataDxfId="23"/>
     <tableColumn id="3" name="Client Ref." dataDxfId="22"/>
-    <tableColumn id="4" name="Order Nr." dataDxfId="2"/>
-    <tableColumn id="5" name="Order Reg Date" dataDxfId="0"/>
-    <tableColumn id="6" name="Item Nr." dataDxfId="1"/>
-    <tableColumn id="7" name="Client Art. Code" dataDxfId="21"/>
-    <tableColumn id="8" name="Vendor Nr." dataDxfId="20"/>
-    <tableColumn id="9" name="Description" dataDxfId="19"/>
-    <tableColumn id="10" name="Supplier" dataDxfId="18"/>
-    <tableColumn id="11" name="QTY" dataDxfId="17"/>
-    <tableColumn id="12" name="Unit Price" dataDxfId="16"/>
-    <tableColumn id="13" name="Currency" dataDxfId="15"/>
-    <tableColumn id="14" name="EX-Rate" dataDxfId="5"/>
-    <tableColumn id="21" name="CDD" dataDxfId="3"/>
-    <tableColumn id="15" name="EDD" dataDxfId="4"/>
-    <tableColumn id="16" name="RFI" dataDxfId="6"/>
+    <tableColumn id="4" name="Order Nr." dataDxfId="21"/>
+    <tableColumn id="5" name="Order Reg Date" dataDxfId="20"/>
+    <tableColumn id="6" name="Item Nr." dataDxfId="19"/>
+    <tableColumn id="7" name="Client Art. Code" dataDxfId="18"/>
+    <tableColumn id="8" name="Vendor Nr." dataDxfId="17"/>
+    <tableColumn id="9" name="Description" dataDxfId="16"/>
+    <tableColumn id="10" name="Supplier" dataDxfId="15"/>
+    <tableColumn id="11" name="QTY" dataDxfId="14"/>
+    <tableColumn id="12" name="Unit Price" dataDxfId="13"/>
+    <tableColumn id="13" name="Currency" dataDxfId="12"/>
+    <tableColumn id="14" name="EX-Rate" dataDxfId="11"/>
+    <tableColumn id="21" name="CDD" dataDxfId="10"/>
+    <tableColumn id="15" name="EDD" dataDxfId="9"/>
+    <tableColumn id="16" name="RFI" dataDxfId="8"/>
     <tableColumn id="17" name="CCD" dataDxfId="7"/>
-    <tableColumn id="18" name="ECD" dataDxfId="8"/>
-    <tableColumn id="19" name="Item Status" dataDxfId="9"/>
-    <tableColumn id="20" name="Total Value" dataDxfId="14"/>
-    <tableColumn id="22" name="EDD/RFI-CDD" dataDxfId="13"/>
-    <tableColumn id="23" name="Delay (RFI-CDD)" dataDxfId="12"/>
-    <tableColumn id="24" name="RFI-Order Date" dataDxfId="11"/>
-    <tableColumn id="25" name="CDD-Order date" dataDxfId="10"/>
+    <tableColumn id="18" name="ECD" dataDxfId="6"/>
+    <tableColumn id="19" name="Item Status" dataDxfId="5"/>
+    <tableColumn id="20" name="Total Value" dataDxfId="4"/>
+    <tableColumn id="22" name="EDD/RFI-CDD" dataDxfId="3"/>
+    <tableColumn id="23" name="Delay (RFI-CDD)" dataDxfId="2"/>
+    <tableColumn id="24" name="RFI-Order Date" dataDxfId="1"/>
+    <tableColumn id="25" name="CDD-Order date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1073,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -1290,4 +1291,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DeliveryPerformance/template/template.xlsx
+++ b/DeliveryPerformance/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20835" windowHeight="8775" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20835" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1197,9 +1197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1297,9 +1295,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DeliveryPerformance/template/template.xlsx
+++ b/DeliveryPerformance/template/template.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Project" sheetId="2" r:id="rId2"/>
+    <sheet name="Project" sheetId="4" r:id="rId2"/>
     <sheet name="Mill" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Project</t>
   </si>
@@ -73,42 +73,6 @@
   </si>
   <si>
     <t>Item Status</t>
-  </si>
-  <si>
-    <t>Total [EUR]</t>
-  </si>
-  <si>
-    <t>Total Items</t>
-  </si>
-  <si>
-    <t>Value [%]</t>
-  </si>
-  <si>
-    <t>Item [%]</t>
-  </si>
-  <si>
-    <t>Delivered to FA:</t>
-  </si>
-  <si>
-    <t>Improved Deliveries:</t>
-  </si>
-  <si>
-    <t>Value of Improved deliveries as FA:</t>
-  </si>
-  <si>
-    <t>Acceleration Cost</t>
-  </si>
-  <si>
-    <t>Items delivered outside Scope</t>
-  </si>
-  <si>
-    <t>Total Value [EUR]:</t>
-  </si>
-  <si>
-    <t>Total Value [NOK]:</t>
-  </si>
-  <si>
-    <t>EX-Rate</t>
   </si>
   <si>
     <t>Total Value</t>
@@ -130,12 +94,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_ &quot;kr&quot;\ * #,##0.00_ ;_ &quot;kr&quot;\ * \-#,##0.00_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,26 +113,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,38 +129,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -227,43 +156,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Prosent" xfId="2" builtinId="5"/>
-    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="26">
     <dxf>
       <font>
         <b val="0"/>
@@ -388,250 +300,233 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -752,23 +647,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabell4" displayName="Tabell4" ref="A1:Y1048576" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:Y1048576"/>
-  <tableColumns count="25">
-    <tableColumn id="1" name="Project" dataDxfId="24"/>
-    <tableColumn id="2" name="Client" dataDxfId="23"/>
-    <tableColumn id="3" name="Client Ref." dataDxfId="22"/>
-    <tableColumn id="4" name="Order Nr." dataDxfId="21"/>
-    <tableColumn id="5" name="Order Reg Date" dataDxfId="20"/>
-    <tableColumn id="6" name="Item Nr." dataDxfId="19"/>
-    <tableColumn id="7" name="Client Art. Code" dataDxfId="18"/>
-    <tableColumn id="8" name="Vendor Nr." dataDxfId="17"/>
-    <tableColumn id="9" name="Description" dataDxfId="16"/>
-    <tableColumn id="10" name="Supplier" dataDxfId="15"/>
-    <tableColumn id="11" name="QTY" dataDxfId="14"/>
-    <tableColumn id="12" name="Unit Price" dataDxfId="13"/>
-    <tableColumn id="13" name="Currency" dataDxfId="12"/>
-    <tableColumn id="14" name="EX-Rate" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabell4" displayName="Tabell4" ref="A1:X1048576" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:X1048576"/>
+  <tableColumns count="24">
+    <tableColumn id="1" name="Project" dataDxfId="23"/>
+    <tableColumn id="2" name="Client" dataDxfId="22"/>
+    <tableColumn id="3" name="Client Ref." dataDxfId="21"/>
+    <tableColumn id="4" name="Order Nr." dataDxfId="20"/>
+    <tableColumn id="5" name="Order Reg Date" dataDxfId="19"/>
+    <tableColumn id="6" name="Item Nr." dataDxfId="18"/>
+    <tableColumn id="7" name="Client Art. Code" dataDxfId="17"/>
+    <tableColumn id="8" name="Vendor Nr." dataDxfId="16"/>
+    <tableColumn id="9" name="Description" dataDxfId="15"/>
+    <tableColumn id="10" name="Supplier" dataDxfId="14"/>
+    <tableColumn id="11" name="QTY" dataDxfId="13"/>
+    <tableColumn id="12" name="Unit Price" dataDxfId="12"/>
+    <tableColumn id="13" name="Currency" dataDxfId="11"/>
     <tableColumn id="21" name="CDD" dataDxfId="10"/>
     <tableColumn id="15" name="EDD" dataDxfId="9"/>
     <tableColumn id="16" name="RFI" dataDxfId="8"/>
@@ -1072,9 +966,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1084,7 +978,7 @@
     <col min="2" max="2" width="43" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="8" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="1" customWidth="1"/>
@@ -1093,95 +987,92 @@
     <col min="11" max="11" width="11.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="19" customWidth="1"/>
-    <col min="17" max="17" width="12" style="19" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="19" customWidth="1"/>
-    <col min="20" max="21" width="11.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="14" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" style="14" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" style="14" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="14" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="11.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="12" style="8" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16" style="3" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" style="3" customWidth="1"/>
+    <col min="23" max="23" width="16" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="18" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="17" t="s">
-        <v>35</v>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1195,98 +1086,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E11"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DeliveryPerformance/template/template.xlsx
+++ b/DeliveryPerformance/template/template.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20835" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20835" windowHeight="8775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="Project" sheetId="4" r:id="rId2"/>
     <sheet name="Mill" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O27"/>
 </workbook>
 </file>
 
@@ -968,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1088,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
